--- a/doc/milestone2le/measurements_increase_load/db_scaling_stable.xlsx
+++ b/doc/milestone2le/measurements_increase_load/db_scaling_stable.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
-  <workbookPr autoCompressPictures="0"/>
+  <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480"/>
   </bookViews>
@@ -1399,7 +1399,7 @@
                   <c:v>5965.43189904814</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>6800.0</c:v>
+                  <c:v>6821.38891670231</c:v>
                 </c:pt>
                 <c:pt idx="200">
                   <c:v>7111.11052153456</c:v>
@@ -4373,7 +4373,7 @@
                   <c:v>15.1448683914963</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>15.5244628107067</c:v>
+                  <c:v>15.6545993985929</c:v>
                 </c:pt>
                 <c:pt idx="200">
                   <c:v>18.0</c:v>
@@ -6736,8 +6736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q302"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="O138" sqref="O138"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="O177" sqref="N177:O177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10385,10 +10385,10 @@
         <v>-1</v>
       </c>
       <c r="N177" s="4">
-        <v>6800</v>
+        <v>6821.3889167023099</v>
       </c>
       <c r="O177" s="4">
-        <v>15.5244628107067</v>
+        <v>15.6545993985929</v>
       </c>
       <c r="P177" s="4">
         <v>7673.5523654307699</v>
